--- a/IntUI/Uploads/SalesImport/Completed/14-02-2012-210530SalesTestImport3.xlsx
+++ b/IntUI/Uploads/SalesImport/Completed/14-02-2012-210530SalesTestImport3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>email address</t>
-  </si>
-  <si>
-    <t>Z@amazonco.co.uk</t>
   </si>
   <si>
     <t>bill@microsoft.com</t>
@@ -68,12 +65,18 @@
   <si>
     <t>Johnny Lee</t>
   </si>
+  <si>
+    <t>James McMillan</t>
+  </si>
+  <si>
+    <t>frank1@cfg.biz</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +97,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,7 +126,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -127,6 +136,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -430,15 +440,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
@@ -468,13 +478,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>40940</v>
+        <v>40970</v>
       </c>
       <c r="B2">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>63</v>
@@ -483,18 +493,18 @@
         <v>0</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>40941</v>
+        <v>40971</v>
       </c>
       <c r="B3">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>52</v>
@@ -503,18 +513,18 @@
         <v>6</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>40942</v>
+        <v>40972</v>
       </c>
       <c r="B4">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>51</v>
@@ -523,18 +533,18 @@
         <v>6</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>40942</v>
+        <v>40972</v>
       </c>
       <c r="B5">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>57</v>
@@ -543,38 +553,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>40942</v>
+        <v>40973</v>
       </c>
       <c r="B6">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>40942</v>
+        <v>40974</v>
       </c>
       <c r="B7">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -585,36 +592,33 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>40942</v>
+        <v>40975</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>40943</v>
+        <v>40976</v>
       </c>
       <c r="B9">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -622,36 +626,36 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>40944</v>
+        <v>40976</v>
       </c>
       <c r="B10">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E10">
         <v>10</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>40945</v>
+        <v>40976</v>
       </c>
       <c r="B11">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -659,73 +663,73 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>40946</v>
+        <v>40976</v>
       </c>
       <c r="B12">
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>40946</v>
+        <v>40979</v>
       </c>
       <c r="B13">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E13">
-        <v>10</v>
-      </c>
-      <c r="F13" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>40946</v>
+        <v>40980</v>
       </c>
       <c r="B14">
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E14">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>40946</v>
+        <v>40981</v>
       </c>
       <c r="B15">
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>11</v>
@@ -733,192 +737,186 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>40946</v>
+        <v>40982</v>
       </c>
       <c r="B16">
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E16">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>40947</v>
+        <v>40982</v>
       </c>
       <c r="B17">
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E17">
-        <v>10</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>40948</v>
+        <v>40982</v>
       </c>
       <c r="B18">
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="E18">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>40949</v>
+        <v>40982</v>
       </c>
       <c r="B19">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E19">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>40950</v>
+        <v>40982</v>
       </c>
       <c r="B20">
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>40951</v>
+        <v>40983</v>
       </c>
       <c r="B21">
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E21">
-        <v>5</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>40952</v>
+        <v>40984</v>
       </c>
       <c r="B22">
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E22">
-        <v>5</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>40952</v>
+        <v>40985</v>
       </c>
       <c r="B23">
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>40952</v>
+        <v>40986</v>
       </c>
       <c r="B24">
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>40952</v>
+        <v>40987</v>
       </c>
       <c r="B25">
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D25">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E25">
-        <v>5</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>40952</v>
+        <v>40988</v>
       </c>
       <c r="B26">
         <v>7</v>
@@ -927,15 +925,18 @@
         <v>15</v>
       </c>
       <c r="D26">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>40953</v>
+        <v>40988</v>
       </c>
       <c r="B27">
         <v>7</v>
@@ -944,15 +945,15 @@
         <v>15</v>
       </c>
       <c r="D27">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>40954</v>
+        <v>40989</v>
       </c>
       <c r="B28">
         <v>7</v>
@@ -961,15 +962,15 @@
         <v>15</v>
       </c>
       <c r="D28">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>40955</v>
+        <v>40990</v>
       </c>
       <c r="B29">
         <v>7</v>
@@ -978,18 +979,18 @@
         <v>15</v>
       </c>
       <c r="D29">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>40956</v>
+        <v>40991</v>
       </c>
       <c r="B30">
         <v>7</v>
@@ -998,15 +999,15 @@
         <v>15</v>
       </c>
       <c r="D30">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>40957</v>
+        <v>40992</v>
       </c>
       <c r="B31">
         <v>7</v>
@@ -1015,15 +1016,15 @@
         <v>15</v>
       </c>
       <c r="D31">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>40958</v>
+        <v>40993</v>
       </c>
       <c r="B32">
         <v>7</v>
@@ -1032,453 +1033,624 @@
         <v>15</v>
       </c>
       <c r="D32">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="E32">
         <v>20</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>40958</v>
+        <v>40993</v>
       </c>
       <c r="B33">
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D33">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E33">
         <v>20</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>40958</v>
+        <v>40993</v>
       </c>
       <c r="B34">
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D34">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E34">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>40958</v>
+        <v>40993</v>
       </c>
       <c r="B35">
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D35">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E35">
-        <v>20</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>40958</v>
+        <v>40993</v>
       </c>
       <c r="B36">
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D36">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E36">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>40959</v>
+        <v>40993</v>
       </c>
       <c r="B37">
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D37">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E37">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>40960</v>
+        <v>40994</v>
       </c>
       <c r="B38">
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D38">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E38">
-        <v>20</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>40961</v>
+        <v>40995</v>
       </c>
       <c r="B39">
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D39">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E39">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>40962</v>
+        <v>40996</v>
       </c>
       <c r="B40">
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D40">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E40">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>40963</v>
+        <v>40997</v>
       </c>
       <c r="B41">
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D41">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E41">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>40963</v>
+        <v>40997</v>
       </c>
       <c r="B42">
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D42">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E42">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>40963</v>
+        <v>40998</v>
       </c>
       <c r="B43">
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D43">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E43">
         <v>5</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>40963</v>
+        <v>40999</v>
       </c>
       <c r="B44">
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D44">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E44">
         <v>5</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>40963</v>
+        <v>40997</v>
       </c>
       <c r="B45">
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D45">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E45">
-        <v>5</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>40963</v>
+        <v>40971</v>
       </c>
       <c r="B46">
-        <v>7</v>
-      </c>
-      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D46">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E46">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>40964</v>
+        <v>40972</v>
       </c>
       <c r="B47">
-        <v>7</v>
-      </c>
-      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D47">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E47">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>40965</v>
+        <v>40973</v>
       </c>
       <c r="B48">
-        <v>7</v>
-      </c>
-      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D48">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E48">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>40966</v>
+        <v>40973</v>
       </c>
       <c r="B49">
-        <v>7</v>
-      </c>
-      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D49">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E49">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>40967</v>
+        <v>40973</v>
       </c>
       <c r="B50">
-        <v>7</v>
-      </c>
-      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D50">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E50">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>40967</v>
+        <v>40974</v>
       </c>
       <c r="B51">
-        <v>7</v>
-      </c>
-      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D51">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E51">
-        <v>5</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>40967</v>
+        <v>40975</v>
       </c>
       <c r="B52">
-        <v>7</v>
-      </c>
-      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D52">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E52">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>40967</v>
+        <v>40976</v>
       </c>
       <c r="B53">
-        <v>7</v>
-      </c>
-      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D53">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E53">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>40968</v>
+        <v>40977</v>
       </c>
       <c r="B54">
-        <v>7</v>
-      </c>
-      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D54">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E54">
-        <v>5</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>40969</v>
+        <v>40977</v>
       </c>
       <c r="B55">
-        <v>7</v>
-      </c>
-      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D55">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E55">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>40967</v>
+        <v>40977</v>
       </c>
       <c r="B56">
-        <v>7</v>
-      </c>
-      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D56">
         <v>61</v>
       </c>
       <c r="E56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>40977</v>
+      </c>
+      <c r="B57">
+        <v>6</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57">
+        <v>51</v>
+      </c>
+      <c r="E57">
+        <v>10</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>40977</v>
+      </c>
+      <c r="B58">
+        <v>6</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58">
+        <v>55</v>
+      </c>
+      <c r="E58">
+        <v>10</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>40978</v>
+      </c>
+      <c r="B59">
+        <v>6</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59">
+        <v>58</v>
+      </c>
+      <c r="E59">
+        <v>10</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>40998</v>
+      </c>
+      <c r="B60">
+        <v>6</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60">
+        <v>65</v>
+      </c>
+      <c r="E60">
+        <v>5</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>40998</v>
+      </c>
+      <c r="B61">
+        <v>6</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61">
+        <v>65</v>
+      </c>
+      <c r="E61">
+        <v>5</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>40998</v>
+      </c>
+      <c r="B62">
+        <v>6</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62">
+        <v>63</v>
+      </c>
+      <c r="E62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>40999</v>
+      </c>
+      <c r="B63">
+        <v>6</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63">
+        <v>57</v>
+      </c>
+      <c r="E63">
+        <v>5</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>41000</v>
+      </c>
+      <c r="B64">
+        <v>6</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64">
+        <v>55</v>
+      </c>
+      <c r="E64">
+        <v>5</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>40998</v>
+      </c>
+      <c r="B65">
+        <v>6</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65">
+        <v>61</v>
+      </c>
+      <c r="E65">
         <v>0</v>
       </c>
     </row>
@@ -1486,29 +1658,31 @@
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1"/>
     <hyperlink ref="F4" r:id="rId2"/>
-    <hyperlink ref="F6" r:id="rId3"/>
-    <hyperlink ref="F7:F8" r:id="rId4" display="Karl@gmail.co.uk"/>
-    <hyperlink ref="F13" r:id="rId5"/>
-    <hyperlink ref="F2" r:id="rId6"/>
-    <hyperlink ref="F17" r:id="rId7"/>
-    <hyperlink ref="F25" r:id="rId8"/>
-    <hyperlink ref="F35" r:id="rId9"/>
-    <hyperlink ref="F38" r:id="rId10"/>
-    <hyperlink ref="F33" r:id="rId11"/>
+    <hyperlink ref="F10" r:id="rId3"/>
+    <hyperlink ref="F2" r:id="rId4"/>
+    <hyperlink ref="F19" r:id="rId5"/>
+    <hyperlink ref="F26" r:id="rId6"/>
+    <hyperlink ref="F29" r:id="rId7"/>
+    <hyperlink ref="F7" r:id="rId8"/>
+    <hyperlink ref="F12" r:id="rId9"/>
+    <hyperlink ref="F15" r:id="rId10"/>
+    <hyperlink ref="F16" r:id="rId11"/>
     <hyperlink ref="F34" r:id="rId12"/>
-    <hyperlink ref="F32" r:id="rId13"/>
-    <hyperlink ref="F10" r:id="rId14"/>
-    <hyperlink ref="F15" r:id="rId15"/>
-    <hyperlink ref="F16" r:id="rId16"/>
-    <hyperlink ref="F21" r:id="rId17"/>
-    <hyperlink ref="F22" r:id="rId18"/>
-    <hyperlink ref="F43" r:id="rId19"/>
-    <hyperlink ref="F50" r:id="rId20"/>
-    <hyperlink ref="F51:F52" r:id="rId21" display="thomas.brown@ed.ac.uk"/>
-    <hyperlink ref="F45" r:id="rId22"/>
+    <hyperlink ref="F41" r:id="rId13"/>
+    <hyperlink ref="F36" r:id="rId14"/>
+    <hyperlink ref="F47" r:id="rId15"/>
+    <hyperlink ref="F48" r:id="rId16"/>
+    <hyperlink ref="F50" r:id="rId17"/>
+    <hyperlink ref="F55" r:id="rId18"/>
+    <hyperlink ref="F46" r:id="rId19"/>
+    <hyperlink ref="F59" r:id="rId20"/>
+    <hyperlink ref="F52" r:id="rId21"/>
+    <hyperlink ref="F57" r:id="rId22"/>
+    <hyperlink ref="F58" r:id="rId23"/>
+    <hyperlink ref="F60:F61" r:id="rId24" display="thomas.brown@ed.ac.uk"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
 </worksheet>
 </file>
 
@@ -1517,7 +1691,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -1530,7 +1706,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
